--- a/methodologie/filtres/perimetre_maritime_cantons.xlsx
+++ b/methodologie/filtres/perimetre_maritime_cantons.xlsx
@@ -12960,8 +12960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1809" workbookViewId="0">
-      <selection activeCell="E1843" sqref="E1843"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14293,7 +14293,7 @@
         <v>2857</v>
       </c>
       <c r="E78" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -14310,7 +14310,7 @@
         <v>2858</v>
       </c>
       <c r="E79" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -14327,7 +14327,7 @@
         <v>2859</v>
       </c>
       <c r="E80" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -14684,7 +14684,7 @@
         <v>3304</v>
       </c>
       <c r="E101" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -19120,7 +19120,7 @@
       <c r="D362" t="s">
         <v>2363</v>
       </c>
-      <c r="E362">
+      <c r="E362" s="2">
         <v>1</v>
       </c>
     </row>
@@ -29252,7 +29252,7 @@
       <c r="D958" t="s">
         <v>3038</v>
       </c>
-      <c r="E958">
+      <c r="E958" s="2">
         <v>1</v>
       </c>
     </row>
@@ -29337,7 +29337,7 @@
       <c r="D963" t="s">
         <v>3043</v>
       </c>
-      <c r="E963">
+      <c r="E963" s="2">
         <v>1</v>
       </c>
     </row>
@@ -31275,7 +31275,7 @@
       <c r="D1077" t="s">
         <v>3157</v>
       </c>
-      <c r="E1077">
+      <c r="E1077" s="2">
         <v>1</v>
       </c>
     </row>
@@ -31309,7 +31309,7 @@
       <c r="D1079" t="s">
         <v>3159</v>
       </c>
-      <c r="E1079">
+      <c r="E1079" s="2">
         <v>1</v>
       </c>
     </row>
@@ -31734,7 +31734,7 @@
       <c r="D1104" t="s">
         <v>3183</v>
       </c>
-      <c r="E1104">
+      <c r="E1104" s="2">
         <v>1</v>
       </c>
     </row>
@@ -34386,7 +34386,7 @@
       <c r="D1260" t="s">
         <v>3360</v>
       </c>
-      <c r="E1260">
+      <c r="E1260" s="2">
         <v>1</v>
       </c>
     </row>
@@ -36052,7 +36052,7 @@
       <c r="D1358" t="s">
         <v>3458</v>
       </c>
-      <c r="E1358">
+      <c r="E1358" s="2">
         <v>1</v>
       </c>
     </row>
@@ -40795,7 +40795,7 @@
       <c r="D1637" t="s">
         <v>3735</v>
       </c>
-      <c r="E1637">
+      <c r="E1637" s="2">
         <v>1</v>
       </c>
     </row>
@@ -42614,7 +42614,7 @@
       <c r="D1744" t="s">
         <v>3841</v>
       </c>
-      <c r="E1744">
+      <c r="E1744" s="2">
         <v>1</v>
       </c>
     </row>
@@ -44093,7 +44093,7 @@
       <c r="D1831" t="s">
         <v>3927</v>
       </c>
-      <c r="E1831">
+      <c r="E1831" s="2">
         <v>1</v>
       </c>
     </row>
@@ -44280,7 +44280,7 @@
       <c r="D1842" t="s">
         <v>3938</v>
       </c>
-      <c r="E1842">
+      <c r="E1842" s="2">
         <v>1</v>
       </c>
     </row>
@@ -48782,7 +48782,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:E2106">
-    <sortCondition ref="C526"/>
+    <sortCondition ref="C91"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
